--- a/medicine/Soins infirmiers et profession infirmière/Hôpital_central_de_Vaasa/Hôpital_central_de_Vaasa.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Hôpital_central_de_Vaasa/Hôpital_central_de_Vaasa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_central_de_Vaasa</t>
+          <t>Hôpital_central_de_Vaasa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital central de Vaasa (finnois : Vaasan keskussairaala) est l'hôpital central du district hospitalier de Vaasa situé dans le quartier d'Hietalahti à Vaasa en Finlande[2],[1],[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital central de Vaasa (finnois : Vaasan keskussairaala) est l'hôpital central du district hospitalier de Vaasa situé dans le quartier d'Hietalahti à Vaasa en Finlande. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_central_de_Vaasa</t>
+          <t>Hôpital_central_de_Vaasa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Conçu par les architectes Inkeri et Erkki Linnasalmi, l'hôpital central de Vaasa est construit en 1952-1956.
 Aujourd'hui, il fournit des services de soins médicaux spéciaux à 170 000 habitants des municipalités membres du District hospitalier de Vaasa. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_central_de_Vaasa</t>
+          <t>Hôpital_central_de_Vaasa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Départements et services hospitaliers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Départements de psychiatrie aiguë
@@ -584,7 +600,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_central_de_Vaasa</t>
+          <t>Hôpital_central_de_Vaasa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -602,7 +618,9 @@
           <t>Cliniques et traitements ambulatoires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Clinique ambulatoire HAL
